--- a/biology/Microbiologie/Nassulidae/Nassulidae.xlsx
+++ b/biology/Microbiologie/Nassulidae/Nassulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nassulidae sont une famille de Ciliés de la classe des Nassophorea et de l’ordre des Nassulida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Nassula, dérivé du latin nassa, « nasse », et du suffixe -ula, « petite », en référence au pharynx de l'organisme ressemblant à une petite nasse.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nassulidae ont une taille petite (&lt; 80 μm) à grande (&gt; 200 μm). Leur forme est à peu près ellipsoïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme), dense. Ils ont une « frange hypostomiale synhyménium », avec peu ou beaucoup de polykinétides composées d'au moins quatre cinétosomes s'étendant de la région postorale à gauche, parfois sur la surface dorsale. Leur dikinétidés parorales sont parfois bien visibles. Leur cyrtos est proéminent, entourant le cytostome-cytopharynx dans le 1/3 antérieur du corps. Leur macronoyau est globuleux à ellipsoïde. Un micronoyau est présent. La vacuole contractile, généralement unique, est médio-ventrale. Ce sont des algivore (consommateurs d'algues microscopiques)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nassulidae ont une taille petite (&lt; 80 μm) à grande (&gt; 200 μm). Leur forme est à peu près ellipsoïde. Ils nagent librement dans leur milieu de vie. Leur ciliation somatique est holotriche (c. à d. uniforme), dense. Ils ont une « frange hypostomiale synhyménium », avec peu ou beaucoup de polykinétides composées d'au moins quatre cinétosomes s'étendant de la région postorale à gauche, parfois sur la surface dorsale. Leur dikinétidés parorales sont parfois bien visibles. Leur cyrtos est proéminent, entourant le cytostome-cytopharynx dans le 1/3 antérieur du corps. Leur macronoyau est globuleux à ellipsoïde. Un micronoyau est présent. La vacuole contractile, généralement unique, est médio-ventrale. Ce sont des algivore (consommateurs d'algues microscopiques).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Nassulidae vivent dans des habitats marins, parfois saumâtres et d'eau douce, avec une large répartition mondiale[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Nassulidae vivent dans des habitats marins, parfois saumâtres et d'eau douce, avec une large répartition mondiale,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 juillet 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 juillet 2023) :
 Archinassula Kahl, 1935
 Nassula Ehrenberg, 1833  genre type
 Nassulides Foissner, Agatha, &amp; Berger, 2002
@@ -643,9 +663,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Nassulidae de Fromentel, 1874[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Nassulidae de Fromentel, 1874.
 </t>
         </is>
       </c>
